--- a/biology/Zoologie/Diamant_azuvert/Diamant_azuvert.xlsx
+++ b/biology/Zoologie/Diamant_azuvert/Diamant_azuvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrura tricolor
 Le Diamant azuvert ou Pape de Forbes (Erythrura tricolor) est une petite espèce de passereaux se trouvant au Timor appartenant à la famille des Estrildidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 10 cm. Le mâle a la tête, le menton, la gorge et la poitrine bleu cobalt. Le crâne possède un reflet vert et il a la nuque bleu-vert. Le ventre est bleu. Le dos et les ailes sont verts. La queue et le croupion sont rouges. La femelle est plus terne que le mâle. Le bec est noir.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit au Timor au bord des forêts d'eucalyptus et dans les buissons de bambous qui se transforment en terrain herbeux jusqu'à une hauteur de 1500 mètres. Il se nourrit uniquement de graines.
 Il vit en couple ou en famille. Il niche très haut dans les arbres.
@@ -575,7 +591,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dupuyoo M. (2002),  Diamants, Papes et Capucins. Estrildés de l'Indo-Pacifique, Jardin d'Oiseaux Tropicaux, La Londe les Maures, 240 p.
 (en) Référence Congrès ornithologique international : Erythrura tricolor dans l'ordre Passeriformes (consulté le 19 mai 2015)
